--- a/assets/findings/2024-02-16-findings.xlsx
+++ b/assets/findings/2024-02-16-findings.xlsx
@@ -636,8 +636,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>1</v>
+      <c r="M2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N2" t="n">
         <v>578681</v>
@@ -672,8 +674,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -738,8 +742,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>1</v>
+      <c r="M3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N3" t="n">
         <v>1376181</v>
@@ -774,8 +780,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>1</v>
+      <c r="U3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -840,8 +848,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>1</v>
+      <c r="M4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N4" t="n">
         <v>1350678</v>
@@ -876,8 +886,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>1</v>
+      <c r="U4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -942,8 +954,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>1</v>
+      <c r="M5" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N5" t="n">
         <v>1350678</v>
@@ -978,8 +992,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -1044,8 +1060,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -1077,8 +1095,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>1</v>
+      <c r="U6" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -1143,8 +1163,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1176,8 +1198,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -1411,8 +1435,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -1444,8 +1470,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>1</v>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -1510,8 +1538,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -1543,8 +1573,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -1609,8 +1641,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>1</v>
+      <c r="M4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N4" t="n">
         <v>578681</v>
@@ -1645,8 +1679,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -1711,8 +1747,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>1</v>
+      <c r="M5" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N5" t="n">
         <v>1376181</v>
@@ -1747,8 +1785,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>1</v>
+      <c r="U5" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -1813,8 +1853,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>1</v>
+      <c r="M6" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N6" t="n">
         <v>1350678</v>
@@ -1849,8 +1891,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>1</v>
+      <c r="U6" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -1915,8 +1959,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>1</v>
+      <c r="M7" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N7" t="n">
         <v>1350678</v>
@@ -1951,8 +1997,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -2186,8 +2234,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -2219,8 +2269,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -2285,8 +2337,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -2318,8 +2372,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -2384,8 +2440,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -2417,8 +2475,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>1</v>
+      <c r="U4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -2483,8 +2543,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -2516,8 +2578,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -2582,8 +2646,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -2615,8 +2681,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>1</v>
+      <c r="U6" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -2681,8 +2749,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -2714,8 +2784,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -2780,8 +2852,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -2813,8 +2887,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>0</v>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -2879,8 +2955,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -2912,8 +2990,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>0</v>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -2978,8 +3058,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O10" s="1" t="inlineStr">
         <is>
@@ -3011,8 +3093,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>0</v>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -3077,8 +3161,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O11" s="1" t="inlineStr">
         <is>
@@ -3110,8 +3196,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>0</v>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -3176,8 +3264,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M12" t="b">
-        <v>0</v>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -3209,8 +3299,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U12" t="b">
-        <v>0</v>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -3275,8 +3367,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M13" t="b">
-        <v>0</v>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -3308,8 +3402,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U13" t="b">
-        <v>0</v>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -3374,8 +3470,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M14" t="b">
-        <v>0</v>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -3407,8 +3505,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U14" t="b">
-        <v>0</v>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -3473,8 +3573,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M15" t="b">
-        <v>0</v>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -3506,8 +3608,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U15" t="b">
-        <v>0</v>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -3757,8 +3861,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>1</v>
+      <c r="M2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N2" t="n">
         <v>131096</v>
@@ -3793,8 +3899,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -3859,8 +3967,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -3892,8 +4002,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -4119,8 +4231,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -4152,8 +4266,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -4218,8 +4334,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -4251,8 +4369,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -4317,8 +4437,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -4350,8 +4472,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -4416,8 +4540,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -4449,8 +4575,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -4515,8 +4643,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -4548,8 +4678,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -4614,8 +4746,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -4647,8 +4781,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>1</v>
+      <c r="U7" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -4713,8 +4849,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -4746,8 +4884,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>1</v>
+      <c r="U8" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -4983,8 +5123,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -5016,8 +5158,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -5082,8 +5226,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -5115,8 +5261,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -5181,8 +5329,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -5214,8 +5364,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>1</v>
+      <c r="U4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -5280,8 +5432,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -5313,8 +5467,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>1</v>
+      <c r="U5" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -5379,8 +5535,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -5412,8 +5570,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>1</v>
+      <c r="U6" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -5478,8 +5638,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -5511,8 +5673,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -5577,8 +5741,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -5610,8 +5776,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>0</v>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -5676,8 +5844,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -5709,8 +5879,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>0</v>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -5775,8 +5947,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -5808,8 +5982,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>0</v>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -5874,8 +6050,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -5907,8 +6085,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>0</v>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -5973,8 +6153,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M12" t="b">
-        <v>0</v>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -6006,8 +6188,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U12" t="b">
-        <v>0</v>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -6072,8 +6256,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M13" t="b">
-        <v>0</v>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O13" s="1" t="inlineStr">
         <is>
@@ -6105,8 +6291,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U13" t="b">
-        <v>0</v>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -6171,8 +6359,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M14" t="b">
-        <v>0</v>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -6204,8 +6394,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U14" t="b">
-        <v>0</v>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -6270,8 +6462,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M15" t="b">
-        <v>0</v>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -6303,8 +6497,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U15" t="b">
-        <v>0</v>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -6369,8 +6565,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M16" t="b">
-        <v>0</v>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -6402,8 +6600,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U16" t="b">
-        <v>0</v>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -6468,8 +6668,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M17" t="b">
-        <v>0</v>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -6501,8 +6703,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U17" t="b">
-        <v>0</v>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -6567,8 +6771,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M18" t="b">
-        <v>0</v>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -6600,8 +6806,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U18" t="b">
-        <v>0</v>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -6666,8 +6874,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M19" t="b">
-        <v>0</v>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -6699,8 +6909,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U19" t="b">
-        <v>0</v>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -6765,8 +6977,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M20" t="b">
-        <v>0</v>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -6798,8 +7012,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U20" t="b">
-        <v>1</v>
+      <c r="U20" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -6864,8 +7080,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M21" t="b">
-        <v>0</v>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -6897,8 +7115,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U21" t="b">
-        <v>1</v>
+      <c r="U21" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -6963,8 +7183,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M22" t="b">
-        <v>0</v>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -6996,8 +7218,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U22" t="b">
-        <v>1</v>
+      <c r="U22" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -7062,8 +7286,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M23" t="b">
-        <v>0</v>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -7095,8 +7321,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U23" t="b">
-        <v>1</v>
+      <c r="U23" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
@@ -7161,8 +7389,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M24" t="b">
-        <v>0</v>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -7194,8 +7424,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U24" t="b">
-        <v>1</v>
+      <c r="U24" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -7260,8 +7492,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M25" t="b">
-        <v>0</v>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -7293,8 +7527,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U25" t="b">
-        <v>1</v>
+      <c r="U25" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
@@ -7359,8 +7595,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M26" t="b">
-        <v>0</v>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -7392,8 +7630,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U26" t="b">
-        <v>1</v>
+      <c r="U26" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
@@ -7458,8 +7698,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M27" t="b">
-        <v>0</v>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -7491,8 +7733,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U27" t="b">
-        <v>1</v>
+      <c r="U27" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
@@ -7557,8 +7801,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M28" t="b">
-        <v>0</v>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -7590,8 +7836,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U28" t="b">
-        <v>1</v>
+      <c r="U28" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
@@ -7656,8 +7904,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M29" t="b">
-        <v>0</v>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -7689,8 +7939,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U29" t="b">
-        <v>1</v>
+      <c r="U29" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
@@ -7755,8 +8007,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M30" t="b">
-        <v>0</v>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -7788,8 +8042,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U30" t="b">
-        <v>0</v>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
@@ -7854,8 +8110,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M31" t="b">
-        <v>0</v>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -7887,8 +8145,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U31" t="b">
-        <v>0</v>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
@@ -7953,8 +8213,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M32" t="b">
-        <v>0</v>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -7986,8 +8248,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U32" t="b">
-        <v>0</v>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
@@ -8052,8 +8316,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M33" t="b">
-        <v>0</v>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -8085,8 +8351,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U33" t="b">
-        <v>0</v>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
@@ -8151,8 +8419,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M34" t="b">
-        <v>0</v>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -8184,8 +8454,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U34" t="b">
-        <v>0</v>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
@@ -8250,8 +8522,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M35" t="b">
-        <v>0</v>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -8283,8 +8557,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U35" t="b">
-        <v>0</v>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
@@ -8349,8 +8625,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M36" t="b">
-        <v>0</v>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -8382,8 +8660,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U36" t="b">
-        <v>0</v>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
@@ -8448,8 +8728,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M37" t="b">
-        <v>0</v>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -8481,8 +8763,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U37" t="b">
-        <v>0</v>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
@@ -8547,8 +8831,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M38" t="b">
-        <v>0</v>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -8580,8 +8866,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U38" t="b">
-        <v>0</v>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
@@ -8646,8 +8934,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M39" t="b">
-        <v>0</v>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -8679,8 +8969,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U39" t="b">
-        <v>0</v>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
@@ -8978,8 +9270,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -9011,8 +9305,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -9077,8 +9373,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -9110,8 +9408,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -9176,8 +9476,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -9209,8 +9511,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -9275,8 +9579,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -9308,8 +9614,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -9374,8 +9682,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -9407,8 +9717,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -9473,8 +9785,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -9506,8 +9820,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -9572,8 +9888,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -9605,8 +9923,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>0</v>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -9671,8 +9991,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -9704,8 +10026,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>0</v>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -9770,8 +10094,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -9803,8 +10129,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>0</v>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -9869,8 +10197,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -9902,8 +10232,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>0</v>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -9968,8 +10300,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M12" t="b">
-        <v>0</v>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -10001,8 +10335,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U12" t="b">
-        <v>0</v>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -10067,8 +10403,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M13" t="b">
-        <v>0</v>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -10100,8 +10438,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U13" t="b">
-        <v>0</v>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -10166,8 +10506,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M14" t="b">
-        <v>0</v>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -10199,8 +10541,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U14" t="b">
-        <v>0</v>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -10265,8 +10609,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M15" t="b">
-        <v>0</v>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -10298,8 +10644,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U15" t="b">
-        <v>0</v>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -10364,8 +10712,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M16" t="b">
-        <v>0</v>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -10397,8 +10747,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U16" t="b">
-        <v>0</v>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -10463,8 +10815,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M17" t="b">
-        <v>0</v>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -10496,8 +10850,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U17" t="b">
-        <v>0</v>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -10562,8 +10918,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M18" t="b">
-        <v>0</v>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -10595,8 +10953,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U18" t="b">
-        <v>0</v>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -10661,8 +11021,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M19" t="b">
-        <v>0</v>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -10694,8 +11056,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U19" t="b">
-        <v>0</v>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -10760,8 +11124,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M20" t="b">
-        <v>0</v>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -10793,8 +11159,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U20" t="b">
-        <v>0</v>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -10859,8 +11227,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M21" t="b">
-        <v>0</v>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -10892,8 +11262,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U21" t="b">
-        <v>0</v>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -10958,8 +11330,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M22" t="b">
-        <v>0</v>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -10991,8 +11365,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U22" t="b">
-        <v>0</v>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -11057,8 +11433,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M23" t="b">
-        <v>1</v>
+      <c r="M23" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N23" t="n">
         <v>37532</v>
@@ -11093,8 +11471,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U23" t="b">
-        <v>1</v>
+      <c r="U23" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
@@ -11159,8 +11539,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M24" t="b">
-        <v>0</v>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -11192,8 +11574,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U24" t="b">
-        <v>1</v>
+      <c r="U24" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -11258,8 +11642,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M25" t="b">
-        <v>0</v>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -11291,8 +11677,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U25" t="b">
-        <v>1</v>
+      <c r="U25" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
@@ -11357,8 +11745,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M26" t="b">
-        <v>0</v>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -11390,8 +11780,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U26" t="b">
-        <v>1</v>
+      <c r="U26" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
@@ -11456,8 +11848,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M27" t="b">
-        <v>0</v>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -11489,8 +11883,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U27" t="b">
-        <v>1</v>
+      <c r="U27" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
@@ -11555,8 +11951,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M28" t="b">
-        <v>0</v>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -11588,8 +11986,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U28" t="b">
-        <v>1</v>
+      <c r="U28" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
@@ -11654,8 +12054,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M29" t="b">
-        <v>0</v>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -11687,8 +12089,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U29" t="b">
-        <v>1</v>
+      <c r="U29" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
@@ -11753,8 +12157,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M30" t="b">
-        <v>0</v>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -11786,8 +12192,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U30" t="b">
-        <v>1</v>
+      <c r="U30" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
@@ -11852,8 +12260,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M31" t="b">
-        <v>0</v>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -11885,8 +12295,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U31" t="b">
-        <v>0</v>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
@@ -11951,8 +12363,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M32" t="b">
-        <v>0</v>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -11984,8 +12398,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U32" t="b">
-        <v>0</v>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
@@ -12050,8 +12466,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M33" t="b">
-        <v>0</v>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -12083,8 +12501,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U33" t="b">
-        <v>0</v>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
@@ -12149,8 +12569,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M34" t="b">
-        <v>0</v>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -12182,8 +12604,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U34" t="b">
-        <v>0</v>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
@@ -12248,8 +12672,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M35" t="b">
-        <v>0</v>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -12281,8 +12707,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U35" t="b">
-        <v>0</v>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
@@ -12572,8 +13000,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -12605,8 +13035,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -12671,8 +13103,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -12704,8 +13138,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -12931,8 +13367,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -12964,8 +13402,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -13030,8 +13470,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -13063,8 +13505,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -13129,8 +13573,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -13162,8 +13608,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>1</v>
+      <c r="U4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -13228,8 +13676,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -13261,8 +13711,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -13327,8 +13779,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -13360,8 +13814,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>1</v>
+      <c r="U6" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -13426,8 +13882,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -13459,8 +13917,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -13525,8 +13985,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -13558,8 +14020,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>0</v>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -13624,8 +14088,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -13657,8 +14123,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>0</v>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -13723,8 +14191,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O10" s="1" t="inlineStr">
         <is>
@@ -13756,8 +14226,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>0</v>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -13822,8 +14294,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O11" s="1" t="inlineStr">
         <is>
@@ -13855,8 +14329,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>0</v>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -13921,8 +14397,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M12" t="b">
-        <v>0</v>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -13954,8 +14432,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U12" t="b">
-        <v>0</v>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -14020,8 +14500,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M13" t="b">
-        <v>0</v>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -14053,8 +14535,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U13" t="b">
-        <v>0</v>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -14119,8 +14603,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M14" t="b">
-        <v>0</v>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -14152,8 +14638,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U14" t="b">
-        <v>0</v>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -14218,8 +14706,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M15" t="b">
-        <v>0</v>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -14251,8 +14741,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U15" t="b">
-        <v>0</v>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -14502,8 +14994,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>1</v>
+      <c r="M2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N2" t="n">
         <v>131096</v>
@@ -14538,8 +15032,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -14604,8 +15100,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -14637,8 +15135,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -14864,8 +15364,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -14897,8 +15399,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -14963,8 +15467,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -14996,8 +15502,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -15062,8 +15570,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -15095,8 +15605,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -15161,8 +15673,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -15194,8 +15708,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -15260,8 +15776,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -15293,8 +15811,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -15526,8 +16046,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -15559,8 +16081,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -15625,8 +16149,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -15658,8 +16184,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -15724,8 +16252,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -15757,8 +16287,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -15823,8 +16355,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -15856,8 +16390,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -15922,8 +16458,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -15955,8 +16493,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -16021,8 +16561,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -16054,8 +16596,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -16120,8 +16664,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -16153,8 +16699,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>0</v>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -16219,8 +16767,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -16252,8 +16802,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>0</v>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -16318,8 +16870,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -16351,8 +16905,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>0</v>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -16417,8 +16973,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -16450,8 +17008,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>0</v>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -16516,8 +17076,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M12" t="b">
-        <v>0</v>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -16549,8 +17111,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U12" t="b">
-        <v>0</v>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -16615,8 +17179,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M13" t="b">
-        <v>0</v>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -16648,8 +17214,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U13" t="b">
-        <v>0</v>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -16714,8 +17282,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M14" t="b">
-        <v>0</v>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -16747,8 +17317,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U14" t="b">
-        <v>0</v>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -16813,8 +17385,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M15" t="b">
-        <v>0</v>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -16846,8 +17420,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U15" t="b">
-        <v>0</v>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -16912,8 +17488,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M16" t="b">
-        <v>0</v>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -16945,8 +17523,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U16" t="b">
-        <v>0</v>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -17198,8 +17778,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -17231,8 +17813,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -17297,8 +17881,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -17330,8 +17916,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -17396,8 +17984,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -17429,8 +18019,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>1</v>
+      <c r="U4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -17495,8 +18087,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -17528,8 +18122,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>1</v>
+      <c r="U5" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -17594,8 +18190,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -17627,8 +18225,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>1</v>
+      <c r="U6" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -17693,8 +18293,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -17726,8 +18328,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -17792,8 +18396,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -17825,8 +18431,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>0</v>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -17891,8 +18499,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -17924,8 +18534,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>0</v>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -17990,8 +18602,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -18023,8 +18637,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>0</v>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -18089,8 +18705,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -18122,8 +18740,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>0</v>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -18188,8 +18808,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M12" t="b">
-        <v>0</v>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -18221,8 +18843,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U12" t="b">
-        <v>0</v>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -18287,8 +18911,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M13" t="b">
-        <v>0</v>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -18320,8 +18946,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U13" t="b">
-        <v>0</v>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -18386,8 +19014,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M14" t="b">
-        <v>0</v>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -18419,8 +19049,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U14" t="b">
-        <v>0</v>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -18485,8 +19117,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M15" t="b">
-        <v>0</v>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -18518,8 +19152,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U15" t="b">
-        <v>0</v>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -18584,8 +19220,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M16" t="b">
-        <v>0</v>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -18617,8 +19255,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U16" t="b">
-        <v>0</v>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -18683,8 +19323,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M17" t="b">
-        <v>0</v>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -18716,8 +19358,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U17" t="b">
-        <v>0</v>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -18782,8 +19426,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M18" t="b">
-        <v>0</v>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -18815,8 +19461,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U18" t="b">
-        <v>0</v>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -18881,8 +19529,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M19" t="b">
-        <v>0</v>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -18914,8 +19564,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U19" t="b">
-        <v>0</v>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -18980,8 +19632,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M20" t="b">
-        <v>0</v>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -19013,8 +19667,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U20" t="b">
-        <v>0</v>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -19079,8 +19735,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M21" t="b">
-        <v>0</v>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -19112,8 +19770,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U21" t="b">
-        <v>0</v>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -19178,8 +19838,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M22" t="b">
-        <v>0</v>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -19211,8 +19873,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U22" t="b">
-        <v>0</v>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -19277,8 +19941,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M23" t="b">
-        <v>0</v>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -19310,8 +19976,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U23" t="b">
-        <v>0</v>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
@@ -19376,8 +20044,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M24" t="b">
-        <v>0</v>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -19409,8 +20079,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U24" t="b">
-        <v>0</v>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -19475,8 +20147,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M25" t="b">
-        <v>0</v>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -19508,8 +20182,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U25" t="b">
-        <v>0</v>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
@@ -19574,8 +20250,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M26" t="b">
-        <v>0</v>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O26" s="1" t="inlineStr">
         <is>
@@ -19607,8 +20285,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U26" t="b">
-        <v>0</v>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
@@ -19673,8 +20353,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M27" t="b">
-        <v>0</v>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -19706,8 +20388,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U27" t="b">
-        <v>0</v>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
@@ -19772,8 +20456,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M28" t="b">
-        <v>0</v>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -19805,8 +20491,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U28" t="b">
-        <v>1</v>
+      <c r="U28" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
@@ -19871,8 +20559,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M29" t="b">
-        <v>0</v>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -19904,8 +20594,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U29" t="b">
-        <v>1</v>
+      <c r="U29" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
@@ -19970,8 +20662,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M30" t="b">
-        <v>0</v>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -20003,8 +20697,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U30" t="b">
-        <v>1</v>
+      <c r="U30" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
@@ -20069,8 +20765,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M31" t="b">
-        <v>0</v>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -20102,8 +20800,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U31" t="b">
-        <v>0</v>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
@@ -20168,8 +20868,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M32" t="b">
-        <v>0</v>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -20201,8 +20903,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U32" t="b">
-        <v>0</v>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
@@ -20267,8 +20971,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M33" t="b">
-        <v>0</v>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -20300,8 +21006,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U33" t="b">
-        <v>0</v>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
@@ -20366,8 +21074,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M34" t="b">
-        <v>0</v>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -20399,8 +21109,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U34" t="b">
-        <v>0</v>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
@@ -20465,8 +21177,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M35" t="b">
-        <v>0</v>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -20498,8 +21212,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U35" t="b">
-        <v>0</v>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
@@ -20564,8 +21280,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M36" t="b">
-        <v>0</v>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -20597,8 +21315,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U36" t="b">
-        <v>0</v>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
@@ -20663,8 +21383,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M37" t="b">
-        <v>0</v>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -20696,8 +21418,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U37" t="b">
-        <v>0</v>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
@@ -20762,8 +21486,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M38" t="b">
-        <v>0</v>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -20795,8 +21521,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U38" t="b">
-        <v>1</v>
+      <c r="U38" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
@@ -20861,8 +21589,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M39" t="b">
-        <v>0</v>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -20894,8 +21624,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U39" t="b">
-        <v>1</v>
+      <c r="U39" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
@@ -20960,8 +21692,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M40" t="b">
-        <v>0</v>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -20993,8 +21727,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U40" t="b">
-        <v>1</v>
+      <c r="U40" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
@@ -21059,8 +21795,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M41" t="b">
-        <v>0</v>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -21092,8 +21830,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U41" t="b">
-        <v>1</v>
+      <c r="U41" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
@@ -21158,8 +21898,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M42" t="b">
-        <v>0</v>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -21191,8 +21933,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U42" t="b">
-        <v>1</v>
+      <c r="U42" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
@@ -21257,8 +22001,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M43" t="b">
-        <v>0</v>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -21290,8 +22036,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U43" t="b">
-        <v>1</v>
+      <c r="U43" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
@@ -21356,8 +22104,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M44" t="b">
-        <v>0</v>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -21389,8 +22139,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U44" t="b">
-        <v>1</v>
+      <c r="U44" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
@@ -21455,8 +22207,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M45" t="b">
-        <v>0</v>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -21488,8 +22242,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U45" t="b">
-        <v>1</v>
+      <c r="U45" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
@@ -21554,8 +22310,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M46" t="b">
-        <v>0</v>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -21587,8 +22345,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U46" t="b">
-        <v>1</v>
+      <c r="U46" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
@@ -21653,8 +22413,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M47" t="b">
-        <v>0</v>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -21686,8 +22448,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U47" t="b">
-        <v>1</v>
+      <c r="U47" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
@@ -21752,8 +22516,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M48" t="b">
-        <v>0</v>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -21785,8 +22551,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U48" t="b">
-        <v>0</v>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
@@ -21851,8 +22619,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M49" t="b">
-        <v>0</v>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -21884,8 +22654,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U49" t="b">
-        <v>0</v>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
@@ -21950,8 +22722,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M50" t="b">
-        <v>0</v>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -21983,8 +22757,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U50" t="b">
-        <v>0</v>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
@@ -22049,8 +22825,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M51" t="b">
-        <v>0</v>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -22082,8 +22860,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U51" t="b">
-        <v>0</v>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
@@ -22148,8 +22928,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M52" t="b">
-        <v>0</v>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -22181,8 +22963,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U52" t="b">
-        <v>0</v>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
@@ -22247,8 +23031,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M53" t="b">
-        <v>0</v>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -22280,8 +23066,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U53" t="b">
-        <v>0</v>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
@@ -22346,8 +23134,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M54" t="b">
-        <v>0</v>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -22379,8 +23169,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U54" t="b">
-        <v>0</v>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
@@ -22445,8 +23237,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M55" t="b">
-        <v>0</v>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -22478,8 +23272,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U55" t="b">
-        <v>0</v>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
@@ -22544,8 +23340,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M56" t="b">
-        <v>0</v>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -22577,8 +23375,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U56" t="b">
-        <v>0</v>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
@@ -22643,8 +23443,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M57" t="b">
-        <v>0</v>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -22676,8 +23478,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U57" t="b">
-        <v>0</v>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
@@ -23011,8 +23815,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -23044,8 +23850,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -23110,8 +23918,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -23143,8 +23953,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -23209,8 +24021,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -23242,8 +24056,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -23308,8 +24124,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -23341,8 +24159,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -23407,8 +24227,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -23440,8 +24262,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -23506,8 +24330,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -23539,8 +24365,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -23605,8 +24433,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -23638,8 +24468,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>0</v>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -23704,8 +24536,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -23737,8 +24571,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>1</v>
+      <c r="U9" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -23803,8 +24639,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -23836,8 +24674,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>0</v>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -23902,8 +24742,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>1</v>
+      <c r="M11" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N11" t="n">
         <v>37532</v>
@@ -23938,8 +24780,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>1</v>
+      <c r="U11" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -24004,8 +24848,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M12" t="b">
-        <v>0</v>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -24037,8 +24883,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U12" t="b">
-        <v>1</v>
+      <c r="U12" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -24103,8 +24951,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M13" t="b">
-        <v>0</v>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -24136,8 +24986,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U13" t="b">
-        <v>1</v>
+      <c r="U13" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -24202,8 +25054,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M14" t="b">
-        <v>0</v>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -24235,8 +25089,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U14" t="b">
-        <v>1</v>
+      <c r="U14" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -24301,8 +25157,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M15" t="b">
-        <v>0</v>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -24334,8 +25192,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U15" t="b">
-        <v>1</v>
+      <c r="U15" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -24400,8 +25260,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M16" t="b">
-        <v>0</v>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -24433,8 +25295,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U16" t="b">
-        <v>1</v>
+      <c r="U16" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -24499,8 +25363,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M17" t="b">
-        <v>0</v>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -24532,8 +25398,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U17" t="b">
-        <v>1</v>
+      <c r="U17" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -24598,8 +25466,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M18" t="b">
-        <v>0</v>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -24631,8 +25501,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U18" t="b">
-        <v>1</v>
+      <c r="U18" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -24697,8 +25569,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M19" t="b">
-        <v>0</v>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -24730,8 +25604,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U19" t="b">
-        <v>0</v>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -24796,8 +25672,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M20" t="b">
-        <v>0</v>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -24829,8 +25707,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U20" t="b">
-        <v>0</v>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -24895,8 +25775,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M21" t="b">
-        <v>0</v>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -24928,8 +25810,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U21" t="b">
-        <v>1</v>
+      <c r="U21" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -24994,8 +25878,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M22" t="b">
-        <v>0</v>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -25027,8 +25913,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U22" t="b">
-        <v>1</v>
+      <c r="U22" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -25093,8 +25981,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M23" t="b">
-        <v>0</v>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -25126,8 +26016,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U23" t="b">
-        <v>0</v>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
@@ -25192,8 +26084,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M24" t="b">
-        <v>0</v>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -25225,8 +26119,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U24" t="b">
-        <v>0</v>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -25291,8 +26187,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M25" t="b">
-        <v>0</v>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -25324,8 +26222,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U25" t="b">
-        <v>0</v>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
@@ -25390,8 +26290,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M26" t="b">
-        <v>0</v>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -25423,8 +26325,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U26" t="b">
-        <v>0</v>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
@@ -25489,8 +26393,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M27" t="b">
-        <v>0</v>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -25522,8 +26428,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U27" t="b">
-        <v>0</v>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
@@ -25797,8 +26705,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -25830,8 +26740,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -26055,8 +26967,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -26088,8 +27002,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -26154,8 +27070,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -26187,8 +27105,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -26253,8 +27173,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -26286,8 +27208,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -26352,8 +27276,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -26385,8 +27311,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -26451,8 +27379,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -26484,8 +27414,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -26550,8 +27482,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -26583,8 +27517,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -26649,8 +27585,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -26682,8 +27620,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>0</v>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -26748,8 +27688,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -26781,8 +27723,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>0</v>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -26847,8 +27791,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -26880,8 +27826,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>0</v>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -26946,8 +27894,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -26979,8 +27929,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>0</v>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -27045,8 +27997,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M12" t="b">
-        <v>0</v>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -27078,8 +28032,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U12" t="b">
-        <v>0</v>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -27144,8 +28100,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M13" t="b">
-        <v>0</v>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -27177,8 +28135,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U13" t="b">
-        <v>0</v>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -27243,8 +28203,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M14" t="b">
-        <v>0</v>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -27276,8 +28238,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U14" t="b">
-        <v>0</v>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -27342,8 +28306,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M15" t="b">
-        <v>0</v>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -27375,8 +28341,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U15" t="b">
-        <v>1</v>
+      <c r="U15" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -27441,8 +28409,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M16" t="b">
-        <v>0</v>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -27474,8 +28444,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U16" t="b">
-        <v>0</v>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -27540,8 +28512,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M17" t="b">
-        <v>0</v>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -27573,8 +28547,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U17" t="b">
-        <v>1</v>
+      <c r="U17" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -27639,8 +28615,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M18" t="b">
-        <v>0</v>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -27672,8 +28650,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U18" t="b">
-        <v>1</v>
+      <c r="U18" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -27738,8 +28718,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M19" t="b">
-        <v>0</v>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -27771,8 +28753,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U19" t="b">
-        <v>1</v>
+      <c r="U19" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -27837,8 +28821,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M20" t="b">
-        <v>0</v>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -27870,8 +28856,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U20" t="b">
-        <v>0</v>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -27936,8 +28924,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M21" t="b">
-        <v>0</v>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -27969,8 +28959,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U21" t="b">
-        <v>0</v>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -28035,8 +29027,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M22" t="b">
-        <v>0</v>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -28068,8 +29062,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U22" t="b">
-        <v>0</v>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -28134,8 +29130,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M23" t="b">
-        <v>0</v>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -28167,8 +29165,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U23" t="b">
-        <v>0</v>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
